--- a/hmap.xlsx
+++ b/hmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78858b1dab1967df/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78858b1dab1967df/Desktop/Kriyeta-3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A98F3948-39CC-44C9-9710-E44167819AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BA02362-7681-4AA3-B53B-BC29119609DF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{A98F3948-39CC-44C9-9710-E44167819AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3CEF8EA-DD05-493D-96E1-3996345EFDA7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{26A947B4-60AA-4FF3-AAF9-FCC7EE4FDDB9}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -455,7 +444,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
